--- a/trunk/documentacion/Cronograma/SCH3 Costos del Proyecto.xlsx
+++ b/trunk/documentacion/Cronograma/SCH3 Costos del Proyecto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,12 +11,12 @@
     <sheet name="28-4" sheetId="2" r:id="rId2"/>
     <sheet name="Interno" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
   <si>
     <t>Líder de Proyecto</t>
   </si>
@@ -181,19 +181,30 @@
   </si>
   <si>
     <t>ANÁLISIS</t>
+  </si>
+  <si>
+    <t>Módulo Promociones</t>
+  </si>
+  <si>
+    <t>Horas sin Modulo Promociones</t>
+  </si>
+  <si>
+    <t>COSTOS DEL PROYECTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="167" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,27 +243,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -264,7 +278,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,10 +365,156 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -371,7 +531,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -379,6 +541,30 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,183 +604,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,127 +632,42 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -757,12 +687,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -774,76 +704,204 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,7 +910,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1136,42 +1194,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>56</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7"/>
@@ -1180,12 +1242,17 @@
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="74">
         <f>+B5*0.25</f>
         <v>306.25</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="79">
+        <f t="shared" ref="D3:D8" si="0">+B3-C3</f>
+        <v>276.25</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -1194,12 +1261,17 @@
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="74">
         <f>+B5*0.15</f>
         <v>183.75</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4" s="80">
+        <f t="shared" si="0"/>
+        <v>153.75</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
@@ -1208,11 +1280,16 @@
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="74">
         <v>1225</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="80">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="7"/>
@@ -1221,12 +1298,17 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="74">
         <f>+B3</f>
         <v>306.25</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="73">
+        <v>20</v>
+      </c>
+      <c r="D6" s="80">
+        <f t="shared" si="0"/>
+        <v>286.25</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="7"/>
@@ -1235,26 +1317,37 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="74">
         <f>+B5*0.1</f>
         <v>122.5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="73">
+        <v>7</v>
+      </c>
+      <c r="D7" s="80">
+        <f t="shared" si="0"/>
+        <v>115.5</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="75">
         <f>+SUM(B3:B7)</f>
         <v>2143.75</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="78">
+        <f>SUM(C3:C7)</f>
+        <v>287</v>
+      </c>
+      <c r="D8" s="81">
+        <f t="shared" si="0"/>
+        <v>1856.75</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="7"/>
@@ -1269,46 +1362,46 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="80">
+      <c r="B11" s="51">
         <v>0.75</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="51">
         <v>0</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="51">
         <v>0.2</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="51">
         <v>0.05</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="52">
         <v>0</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="39">
         <f>+SUM(B11:F11)</f>
         <v>1</v>
       </c>
@@ -1317,22 +1410,22 @@
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="51">
         <v>0</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="51">
         <v>0.15</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="51">
         <v>0.1</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="51">
         <v>0.75</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="52">
         <v>0</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="39">
         <f>+SUM(B12:F12)</f>
         <v>1</v>
       </c>
@@ -1341,22 +1434,22 @@
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="51">
         <v>0.05</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="51">
         <v>0.85</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="51">
         <v>0.05</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="51">
         <v>0.05</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="52">
         <v>0</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="39">
         <f>+SUM(B13:F13)</f>
         <v>1</v>
       </c>
@@ -1365,23 +1458,23 @@
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="51">
         <v>0</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="51">
         <v>0.1</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="51">
         <v>0.1</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="51">
         <v>0</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="52">
         <v>0.8</v>
       </c>
-      <c r="G14" s="68">
-        <f t="shared" ref="G14:G15" si="0">+SUM(B14:F14)</f>
+      <c r="G14" s="39">
+        <f>+SUM(B14:F14)</f>
         <v>1</v>
       </c>
     </row>
@@ -1389,23 +1482,23 @@
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="53">
         <v>0</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="53">
         <v>0.45</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="53">
         <v>0.05</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="53">
         <v>0</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="54">
         <v>0.5</v>
       </c>
-      <c r="G15" s="69">
-        <f t="shared" si="0"/>
+      <c r="G15" s="40">
+        <f>+SUM(B15:F15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1418,292 +1511,700 @@
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="100"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="E17" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="I17" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="6" t="str">
         <f>+B10</f>
         <v>Analista Funcional</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="41">
         <v>25</v>
       </c>
       <c r="C18" s="14">
-        <f>+B11*B3+B12*B4+B13*B5+B14*B6+B15*B7</f>
+        <f>+$B$11*B3+$B$12*B4+$B$13*B5+$B$14*B6+$B$15*B7</f>
         <v>290.9375</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="46">
         <f>+B18*C18</f>
         <v>7273.4375</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="14">
+        <f>+$B$11*D3+$B$12*D4+$B$13*D5+$B$14*D6+$B$15*D7</f>
+        <v>258.4375</v>
+      </c>
+      <c r="F18" s="85">
+        <f>+E18*B18</f>
+        <v>6460.9375</v>
+      </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="100"/>
+      <c r="K18" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="6" t="str">
         <f>+C10</f>
         <v>Desarrollador</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="47">
         <v>25</v>
       </c>
       <c r="C19" s="14">
-        <f>+C11*B3+C12*B4+C13*B5+C14*B6+C15*B7</f>
+        <f>+$C$11*B3+$C$12*B4+$C$13*B5+$C$14*B6+$C$15*B7</f>
         <v>1154.5625</v>
       </c>
-      <c r="D19" s="75">
-        <f t="shared" ref="D19:D22" si="1">+B19*C19</f>
+      <c r="D19" s="46">
+        <f>+B19*C19</f>
         <v>28864.0625</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="14">
+        <f>+$C$11*D3+$C$12*D4+$C$13*D5+$C$14*D6+$C$15*D7</f>
+        <v>974.91250000000002</v>
+      </c>
+      <c r="F19" s="85">
+        <f>+E19*B19</f>
+        <v>24372.8125</v>
+      </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="97"/>
+      <c r="P19" s="96"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="6" t="str">
         <f>+D10</f>
         <v>Lider de Proyecto</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="47">
         <v>40</v>
       </c>
       <c r="C20" s="14">
-        <f>+D11*B3+D12*B4+D13*B5+D14*B6+D15*B7</f>
+        <f>+$D$11*B3+$D$12*B4+$D$13*B5+$D$14*B6+$D$15*B7</f>
         <v>177.625</v>
       </c>
-      <c r="D20" s="75">
-        <f t="shared" si="1"/>
+      <c r="D20" s="46">
+        <f>+B20*C20</f>
         <v>7105</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="14">
+        <f>+$D$11*D3+$D$12*D4+$D$13*D5+$D$14*D6+$D$15*D7</f>
+        <v>156.27500000000001</v>
+      </c>
+      <c r="F20" s="85">
+        <f>+E20*B20</f>
+        <v>6251</v>
+      </c>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="110"/>
+      <c r="K20" s="14">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="L20" s="14">
+        <f>+K20*4</f>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="M20" s="14">
+        <f>+L20*0.1</f>
+        <v>14.180000000000001</v>
+      </c>
+      <c r="N20" s="15">
+        <f>+K20+L20+M20</f>
+        <v>191.43</v>
+      </c>
+      <c r="O20" s="4">
+        <v>40</v>
+      </c>
+      <c r="P20" s="5">
+        <f>+N20*O20</f>
+        <v>7657.2000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="6" t="str">
         <f>+E10</f>
         <v>Arquitecto</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="47">
         <v>30</v>
       </c>
       <c r="C21" s="14">
-        <f>+E11*B3+E12*B4+E13*B5+E14*B6+E15*B7</f>
+        <f>+$E$11*B3+$E$12*B4+$E$13*B5+$E$14*B6+$E$15*B7</f>
         <v>214.375</v>
       </c>
-      <c r="D21" s="75">
-        <f t="shared" si="1"/>
+      <c r="D21" s="46">
+        <f>+B21*C21</f>
         <v>6431.25</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="14">
+        <f>+$E$11*D3+$E$12*D4+$E$13*D5+$E$14*D6+$E$15*D7</f>
+        <v>180.375</v>
+      </c>
+      <c r="F21" s="85">
+        <f>+E21*B21</f>
+        <v>5411.25</v>
+      </c>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="110"/>
+      <c r="K21" s="14">
+        <v>382.55</v>
+      </c>
+      <c r="L21" s="14">
+        <f>+K21*4</f>
+        <v>1530.2</v>
+      </c>
+      <c r="M21" s="14">
+        <f>+L21*0.1</f>
+        <v>153.02000000000001</v>
+      </c>
+      <c r="N21" s="15">
+        <f>+K21+L21+M21</f>
+        <v>2065.77</v>
+      </c>
+      <c r="O21" s="4">
+        <v>25</v>
+      </c>
+      <c r="P21" s="5">
+        <f>+N21*O21</f>
+        <v>51644.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="6" t="str">
         <f>+F10</f>
         <v>Tester</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="47">
         <v>25</v>
       </c>
       <c r="C22" s="14">
-        <f>+F11*B3+F12*B4+F13*B5+F14*B6+F15*B7</f>
+        <f>+$F$11*B3+$F$12*B4+$F$13*B5+$F$14*B6+$F$15*B7</f>
         <v>306.25</v>
       </c>
-      <c r="D22" s="75">
-        <f t="shared" si="1"/>
+      <c r="D22" s="46">
+        <f>+B22*C22</f>
         <v>7656.25</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="14">
+        <f>+$F$11*D3+$F$12*D4+$F$13*D5+$F$14*D6+$F$15*D7</f>
+        <v>286.75</v>
+      </c>
+      <c r="F22" s="85">
+        <f>+E22*B22</f>
+        <v>7168.75</v>
+      </c>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="I22" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="110"/>
+      <c r="K22" s="14">
+        <v>50.75</v>
+      </c>
+      <c r="L22" s="14">
+        <f>+K22*4</f>
+        <v>203</v>
+      </c>
+      <c r="M22" s="14">
+        <f>+L22*0.1</f>
+        <v>20.3</v>
+      </c>
+      <c r="N22" s="15">
+        <f>+K22+L22+M22</f>
+        <v>274.05</v>
+      </c>
+      <c r="O22" s="4">
+        <v>25</v>
+      </c>
+      <c r="P22" s="5">
+        <f>+N22*O22</f>
+        <v>6851.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" thickBot="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="98">
+      <c r="C23" s="68">
         <f>+SUM(C18:C22)</f>
         <v>2143.75</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="69">
         <f>+SUM(D18:D22)</f>
         <v>57330</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" ht="7.5" customHeight="1">
+      <c r="E23" s="83">
+        <f>+SUM(E18:E22)</f>
+        <v>1856.75</v>
+      </c>
+      <c r="F23" s="86">
+        <f>+SUM(F18:F22)</f>
+        <v>49664.75</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="I23" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="112"/>
+      <c r="K23" s="14">
+        <v>164.25</v>
+      </c>
+      <c r="L23" s="14">
+        <f>+K23*4</f>
+        <v>657</v>
+      </c>
+      <c r="M23" s="14">
+        <f>+L23*0.1</f>
+        <v>65.7</v>
+      </c>
+      <c r="N23" s="15">
+        <f>+K23+L23+M23</f>
+        <v>886.95</v>
+      </c>
+      <c r="O23" s="4">
+        <v>25</v>
+      </c>
+      <c r="P23" s="5">
+        <f>+N23*O23</f>
+        <v>22173.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="7.5" customHeight="1" thickBot="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="7.5" customHeight="1" thickBot="1">
+      <c r="I24" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="8">
+        <f>SUM(P20:P23)</f>
+        <v>88326.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="7.5" customHeight="1" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75">
-      <c r="A26" s="101" t="s">
+      <c r="I25" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="11" t="e">
+        <f ca="1">+P24/Interno!I48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19.5" thickBot="1">
+      <c r="A26" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="110" t="s">
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="138"/>
+      <c r="I26" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="105"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A27" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="106">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="124">
         <f>+D23</f>
         <v>57330</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="110" t="s">
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="108"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="107">
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="126">
         <f>+E27/4</f>
         <v>14332.5</v>
       </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="91"/>
-    </row>
-    <row r="29" spans="1:8" ht="7.5" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="110" t="s">
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+    </row>
+    <row r="29" spans="1:16" ht="7.5" customHeight="1">
+      <c r="A29" s="117"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="90">
+        <f>+P24+P24*I27</f>
+        <v>132489.67499999999</v>
+      </c>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="92"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A30" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="108">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="128">
         <v>0.5</v>
       </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="88"/>
-    </row>
-    <row r="31" spans="1:8" ht="7.5" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="93"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="114" t="s">
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="93" t="e">
+        <f>+P25*I27+P25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="95"/>
+    </row>
+    <row r="31" spans="1:16" ht="7.5" customHeight="1">
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="88"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="106">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="124">
         <f>+E27+E$30*E27</f>
         <v>85995</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="94"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118">
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="115">
         <f>+E28+E$30*E28</f>
         <v>21498.75</v>
       </c>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="95"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:8" ht="18.75">
+      <c r="A36" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="124">
+        <f>+F23</f>
+        <v>49664.75</v>
+      </c>
+      <c r="F37" s="124"/>
+      <c r="G37" s="125"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="126">
+        <f>+E37/4</f>
+        <v>12416.1875</v>
+      </c>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="117"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="119"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="128"/>
+      <c r="G40" s="129"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="122"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="124">
+        <f>+E37+E$30*E37</f>
+        <v>74497.125</v>
+      </c>
+      <c r="F43" s="124"/>
+      <c r="G43" s="125"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A44" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="115">
+        <f>+E38+E$30*E38</f>
+        <v>18624.28125</v>
+      </c>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="45">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I25:O25"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1711,11 +2212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -1727,40 +2228,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="96" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1773,14 +2274,14 @@
       <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="14">
         <v>35.450000000000003</v>
       </c>
@@ -1805,10 +2306,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="14">
         <v>382.55</v>
       </c>
@@ -1833,10 +2334,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="14">
         <v>50.75</v>
       </c>
@@ -1861,10 +2362,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="14">
         <v>164.25</v>
       </c>
@@ -1889,103 +2390,103 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="8">
         <f>SUM(H4:H7)</f>
         <v>88326.45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
       <c r="H9" s="11">
-        <f>+H8/Interno!I1</f>
+        <f ca="1">+H8/Interno!I1</f>
         <v>22081.612499999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="38">
+      <c r="A11" s="106">
         <v>0.5</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41">
+      <c r="A13" s="90">
         <f>+H8+H8*A11</f>
         <v>132489.67499999999</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="23">
+      <c r="A14" s="93">
         <f>+H9*A11+H9</f>
         <v>33122.418749999997</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:7">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="56" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1993,7 +2494,7 @@
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="44">
         <f>+B21*0.25</f>
         <v>306.25</v>
       </c>
@@ -2002,7 +2503,7 @@
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="44">
         <f>+B21*0.15</f>
         <v>183.75</v>
       </c>
@@ -2011,7 +2512,7 @@
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="44">
         <v>1225</v>
       </c>
     </row>
@@ -2019,7 +2520,7 @@
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="44">
         <f>+B19</f>
         <v>306.25</v>
       </c>
@@ -2028,7 +2529,7 @@
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="44">
         <f>+B21*0.1</f>
         <v>122.5</v>
       </c>
@@ -2037,53 +2538,53 @@
       <c r="A24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="50">
         <f>+SUM(B19:B23)</f>
         <v>2143.75</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:7">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="80">
+      <c r="B27" s="51">
         <v>0.75</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="51">
         <v>0</v>
       </c>
-      <c r="D27" s="80">
+      <c r="D27" s="51">
         <v>0.2</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="51">
         <v>0.05</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="52">
         <v>0</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="39">
         <f>+SUM(B27:F27)</f>
         <v>1</v>
       </c>
@@ -2092,22 +2593,22 @@
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="80">
+      <c r="B28" s="51">
         <v>0</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="51">
         <v>0.15</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="51">
         <v>0.1</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="51">
         <v>0.75</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="52">
         <v>0</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="39">
         <f>+SUM(B28:F28)</f>
         <v>1</v>
       </c>
@@ -2116,22 +2617,22 @@
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="80">
+      <c r="B29" s="51">
         <v>0.05</v>
       </c>
-      <c r="C29" s="80">
+      <c r="C29" s="51">
         <v>0.85</v>
       </c>
-      <c r="D29" s="80">
+      <c r="D29" s="51">
         <v>0.05</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="51">
         <v>0.05</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="52">
         <v>0</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="39">
         <f>+SUM(B29:F29)</f>
         <v>1</v>
       </c>
@@ -2140,23 +2641,23 @@
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="80">
+      <c r="B30" s="51">
         <v>0</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="51">
         <v>0.1</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="51">
         <v>0.1</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="51">
         <v>0</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="52">
         <v>0.8</v>
       </c>
-      <c r="G30" s="68">
-        <f t="shared" ref="G30:G31" si="0">+SUM(B30:F30)</f>
+      <c r="G30" s="39">
+        <f>+SUM(B30:F30)</f>
         <v>1</v>
       </c>
     </row>
@@ -2164,57 +2665,57 @@
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="82">
+      <c r="B31" s="53">
         <v>0</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="53">
         <v>0.45</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="53">
         <v>0.05</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="53">
         <v>0</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="54">
         <v>0.5</v>
       </c>
-      <c r="G31" s="69">
-        <f t="shared" si="0"/>
+      <c r="G31" s="40">
+        <f>+SUM(B31:F31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="33" spans="1:8">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6" t="str">
         <f>+B26</f>
         <v>Analista Funcional</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="41">
         <v>25</v>
       </c>
       <c r="C34" s="14">
         <f>+B27*B19+B28*B20+B29*B21+B30*B22+B31*B23</f>
         <v>290.9375</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="46">
         <f>+B34*C34</f>
         <v>7273.4375</v>
       </c>
@@ -2224,15 +2725,15 @@
         <f>+C26</f>
         <v>Desarrollador</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="47">
         <v>25</v>
       </c>
       <c r="C35" s="14">
         <f>+C27*B19+C28*B20+C29*B21+C30*B22+C31*B23</f>
         <v>1154.5625</v>
       </c>
-      <c r="D35" s="75">
-        <f t="shared" ref="D35:D38" si="1">+B35*C35</f>
+      <c r="D35" s="46">
+        <f>+B35*C35</f>
         <v>28864.0625</v>
       </c>
     </row>
@@ -2241,15 +2742,15 @@
         <f>+D26</f>
         <v>Lider de Proyecto</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="47">
         <v>40</v>
       </c>
       <c r="C36" s="14">
         <f>+D27*B19+D28*B20+D29*B21+D30*B22+D31*B23</f>
         <v>177.625</v>
       </c>
-      <c r="D36" s="75">
-        <f t="shared" si="1"/>
+      <c r="D36" s="46">
+        <f>+B36*C36</f>
         <v>7105</v>
       </c>
     </row>
@@ -2258,15 +2759,15 @@
         <f>+E26</f>
         <v>Arquitecto</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="47">
         <v>30</v>
       </c>
       <c r="C37" s="14">
         <f>+E27*B19+E28*B20+E29*B21+E30*B22+E31*B23</f>
         <v>214.375</v>
       </c>
-      <c r="D37" s="75">
-        <f t="shared" si="1"/>
+      <c r="D37" s="46">
+        <f>+B37*C37</f>
         <v>6431.25</v>
       </c>
     </row>
@@ -2275,128 +2776,128 @@
         <f>+F26</f>
         <v>Tester</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="47">
         <v>25</v>
       </c>
       <c r="C38" s="14">
         <f>+F27*B19+F28*B20+F29*B21+F30*B22+F31*B23</f>
         <v>306.25</v>
       </c>
-      <c r="D38" s="75">
-        <f t="shared" si="1"/>
+      <c r="D38" s="46">
+        <f>+B38*C38</f>
         <v>7656.25</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="78">
+      <c r="C39" s="49">
         <f>+SUM(C34:C38)</f>
         <v>2143.75</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="48">
         <f>+SUM(D34:D38)</f>
         <v>57330</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="90" customFormat="1">
-      <c r="A41" s="88" t="s">
+    <row r="41" spans="1:8" s="61" customFormat="1">
+      <c r="A41" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="89"/>
-    </row>
-    <row r="42" spans="1:8" s="90" customFormat="1">
-      <c r="A42" s="88" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="60"/>
+    </row>
+    <row r="42" spans="1:8" s="61" customFormat="1">
+      <c r="A42" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="91"/>
-    </row>
-    <row r="43" spans="1:8" s="90" customFormat="1"/>
-    <row r="44" spans="1:8" s="90" customFormat="1">
-      <c r="A44" s="88" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="62"/>
+    </row>
+    <row r="43" spans="1:8" s="61" customFormat="1"/>
+    <row r="44" spans="1:8" s="61" customFormat="1">
+      <c r="A44" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-    </row>
-    <row r="45" spans="1:8" s="90" customFormat="1">
-      <c r="A45" s="92">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+    </row>
+    <row r="45" spans="1:8" s="61" customFormat="1">
+      <c r="A45" s="63">
         <v>0.5</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-    </row>
-    <row r="46" spans="1:8" s="90" customFormat="1">
-      <c r="A46" s="93"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-    </row>
-    <row r="47" spans="1:8" s="90" customFormat="1">
-      <c r="A47" s="88" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+    </row>
+    <row r="46" spans="1:8" s="61" customFormat="1">
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+    </row>
+    <row r="47" spans="1:8" s="61" customFormat="1">
+      <c r="A47" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-    </row>
-    <row r="48" spans="1:8" s="90" customFormat="1">
-      <c r="A48" s="94">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:8" s="61" customFormat="1">
+      <c r="A48" s="65">
         <f>+H41+H41*A45</f>
         <v>0</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-    </row>
-    <row r="49" spans="1:8" s="90" customFormat="1">
-      <c r="A49" s="95">
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+    </row>
+    <row r="49" spans="1:8" s="61" customFormat="1">
+      <c r="A49" s="66">
         <f>+H42*A45+H42</f>
         <v>0</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-    </row>
-    <row r="50" spans="1:8" s="90" customFormat="1"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="1:8" s="61" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A14:H14"/>
@@ -2409,12 +2910,12 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,11 +2927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -2442,13 +2943,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
       <c r="H1" t="s">
         <v>11</v>
       </c>
@@ -2457,10 +2958,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2472,10 +2973,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="3">
         <v>35.450000000000003</v>
       </c>
@@ -2488,10 +2989,10 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="3">
         <v>382.55</v>
       </c>
@@ -2504,10 +3005,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="3">
         <v>50.75</v>
       </c>
@@ -2520,10 +3021,10 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="3">
         <v>164.25</v>
       </c>
@@ -2536,10 +3037,10 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="3">
         <v>0</v>
       </c>
@@ -2552,10 +3053,10 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="3">
         <v>0</v>
       </c>
@@ -2595,20 +3096,20 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:9">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="43" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2616,7 +3117,7 @@
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="44">
         <f>+B17*0.25</f>
         <v>306.25</v>
       </c>
@@ -2625,7 +3126,7 @@
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="44">
         <f>+B17*0.15</f>
         <v>183.75</v>
       </c>
@@ -2634,7 +3135,7 @@
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="44">
         <v>1225</v>
       </c>
     </row>
@@ -2642,7 +3143,7 @@
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="44">
         <f>+B15</f>
         <v>306.25</v>
       </c>
@@ -2651,7 +3152,7 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="44">
         <f>+B17*0.1</f>
         <v>122.5</v>
       </c>
@@ -2660,53 +3161,53 @@
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="79">
+      <c r="B20" s="50">
         <f>+SUM(B15:B19)</f>
         <v>2143.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:7">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="67"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="34">
         <v>0.75</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="34">
         <v>0</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="34">
         <v>0.2</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="34">
         <v>0.05</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="39">
         <f>+SUM(B23:F23)</f>
         <v>1</v>
       </c>
@@ -2715,22 +3216,22 @@
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="34">
         <v>0</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="34">
         <v>0.15</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="34">
         <v>0.1</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="34">
         <v>0.75</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="35">
         <v>0</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="39">
         <f>+SUM(B24:F24)</f>
         <v>1</v>
       </c>
@@ -2739,22 +3240,22 @@
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="34">
         <v>0.05</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="34">
         <v>0.85</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="34">
         <v>0.05</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="34">
         <v>0.05</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="35">
         <v>0</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="39">
         <f>+SUM(B25:F25)</f>
         <v>1</v>
       </c>
@@ -2763,23 +3264,23 @@
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="34">
         <v>0</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="34">
         <v>0.1</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="34">
         <v>0.1</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="34">
         <v>0</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="35">
         <v>0.8</v>
       </c>
-      <c r="G26" s="68">
-        <f t="shared" ref="G26:G27" si="1">+SUM(B26:F26)</f>
+      <c r="G26" s="39">
+        <f>+SUM(B26:F26)</f>
         <v>1</v>
       </c>
     </row>
@@ -2787,38 +3288,38 @@
       <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="36">
         <v>0</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="36">
         <v>0.45</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="36">
         <v>0.05</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="36">
         <v>0</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="37">
         <v>0.5</v>
       </c>
-      <c r="G27" s="69">
-        <f t="shared" si="1"/>
+      <c r="G27" s="40">
+        <f>+SUM(B27:F27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:7" s="44" customFormat="1">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:7" s="16" customFormat="1">
+      <c r="A29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="42" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2827,14 +3328,14 @@
         <f>+B22</f>
         <v>Analista Funcional</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="41">
         <v>25</v>
       </c>
       <c r="C30" s="14">
         <f>+B23*B15+B24*B16+B25*B17+B26*B18+B27*B19</f>
         <v>290.9375</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="46">
         <f>+B30*C30</f>
         <v>7273.4375</v>
       </c>
@@ -2844,15 +3345,15 @@
         <f>+C22</f>
         <v>Desarrollador</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="47">
         <v>25</v>
       </c>
       <c r="C31" s="14">
         <f>+C23*B15+C24*B16+C25*B17+C26*B18+C27*B19</f>
         <v>1154.5625</v>
       </c>
-      <c r="D31" s="75">
-        <f t="shared" ref="D31:D34" si="2">+B31*C31</f>
+      <c r="D31" s="46">
+        <f>+B31*C31</f>
         <v>28864.0625</v>
       </c>
     </row>
@@ -2861,15 +3362,15 @@
         <f>+D22</f>
         <v>Lider de Proyecto</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="47">
         <v>40</v>
       </c>
       <c r="C32" s="14">
         <f>+D23*B15+D24*B16+D25*B17+D26*B18+D27*B19</f>
         <v>177.625</v>
       </c>
-      <c r="D32" s="75">
-        <f t="shared" si="2"/>
+      <c r="D32" s="46">
+        <f>+B32*C32</f>
         <v>7105</v>
       </c>
     </row>
@@ -2878,15 +3379,15 @@
         <f>+E22</f>
         <v>Arquitecto</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="47">
         <v>30</v>
       </c>
       <c r="C33" s="14">
         <f>+E23*B15+E24*B16+E25*B17+E26*B18+E27*B19</f>
         <v>214.375</v>
       </c>
-      <c r="D33" s="75">
-        <f t="shared" si="2"/>
+      <c r="D33" s="46">
+        <f>+B33*C33</f>
         <v>6431.25</v>
       </c>
     </row>
@@ -2895,134 +3396,134 @@
         <f>+F22</f>
         <v>Tester</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="47">
         <v>25</v>
       </c>
       <c r="C34" s="14">
         <f>+F23*B15+F24*B16+F25*B17+F26*B18+F27*B19</f>
         <v>306.25</v>
       </c>
-      <c r="D34" s="75">
-        <f t="shared" si="2"/>
+      <c r="D34" s="46">
+        <f>+B34*C34</f>
         <v>7656.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="78">
+      <c r="C35" s="49">
         <f>+SUM(C30:C34)</f>
         <v>2143.75</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="48">
         <f>+SUM(D30:D34)</f>
         <v>57330</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:4">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="17">
         <v>1225</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="22">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="17">
         <f>+B38*0.25</f>
         <v>306.25</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="17">
         <f>+B38*0.15</f>
         <v>183.75</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="17">
         <f>+B39</f>
         <v>306.25</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="17">
         <f>+B38*0.1</f>
         <v>122.5</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="55">
+      <c r="A43" s="23"/>
+      <c r="B43" s="27">
         <f>+SUM(B38:B42)</f>
         <v>2143.75</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="45" spans="1:4">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="29">
         <f>+B39*0.8</f>
         <v>245</v>
       </c>
@@ -3065,7 +3566,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="58">
+      <c r="B50" s="30">
         <f>+SUM(B45:B49)</f>
         <v>2143.75</v>
       </c>
